--- a/downstream_testing/PSE_Dataset.xlsx
+++ b/downstream_testing/PSE_Dataset.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.bsnconnect.com/personal/u548673_dow_com/Documents/Documents/Documents/Projects/UnivColaboration/SensorFusion/Chat GPT PSE Simulated Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stlp\nlpmaps\downstream_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{FD78C02F-E642-47E5-A0F4-6A65063A2155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DBA31DE-A081-4687-87FC-B1EA795D44CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2AA97-C7AC-4ED2-A258-5F981141537F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{DD407828-902D-482E-BDFE-E8CCA3C49B1E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="7440" xr2:uid="{DD407828-902D-482E-BDFE-E8CCA3C49B1E}"/>
   </bookViews>
   <sheets>
-    <sheet name="PSE Levels" sheetId="1" r:id="rId1"/>
-    <sheet name="SamePerson Report" sheetId="2" r:id="rId2"/>
-    <sheet name="Multiple People Report" sheetId="3" r:id="rId3"/>
-    <sheet name="Multiple People Less Details" sheetId="4" r:id="rId4"/>
+    <sheet name="SamePerson Report" sheetId="2" r:id="rId1"/>
+    <sheet name="Multiple People Report" sheetId="3" r:id="rId2"/>
+    <sheet name="Multiple People Less Details" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,10 +27,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,22 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="304">
-  <si>
-    <t>Level 1: Unplanned Event - A level 1 incident is the most severe and catastrophic event that can occur at the plant. It involves a major breach of process containment, resulting in a catastrophic release of hazardous chemicals that poses a significant threat to both personnel and the environment. This type of incident requires immediate action to contain and mitigate the release and prevent further harm.</t>
-  </si>
-  <si>
-    <t>Level 2: Major Incident - A level 2 incident is a significant event that can result in serious injury, death, or major damage to the plant or equipment. It typically involves a partial breach of process containment that can be mitigated, but requires significant effort to control and recover from.</t>
-  </si>
-  <si>
-    <t>Level 3: Moderate Incident - A level 3 incident is a moderate event that can result in minor injuries, damage to equipment, or minor environmental impact. It typically involves a minor breach of process containment that can be quickly contained and remediated.</t>
-  </si>
-  <si>
-    <t>Level 4: Minor Incident - A level 4 incident is a minor event that does not result in injury or significant damage, but requires action to prevent the incident from escalating. It typically involves a minor deviation from normal operating procedures or a minor equipment failure.</t>
-  </si>
-  <si>
-    <t>Level 5: Near Miss - A level 5 incident is a situation that could have resulted in an incident, but did not due to the timely intervention of personnel or the activation of safety systems. It involves a deviation from normal operating procedures or a minor equipment failure that was quickly detected and resolved.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="299">
   <si>
     <t>Level</t>
   </si>
@@ -977,7 +961,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,12 +972,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1117,7 +1095,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1146,9 +1124,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1167,9 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1485,876 +1457,825 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CBD6FF-568F-4CBD-9BC9-4E25B09C0EF6}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="129.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="10" customFormat="1" ht="28.8">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="10" customFormat="1">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:1" s="10" customFormat="1">
-      <c r="A3" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="10" customFormat="1"/>
-    <row r="5" spans="1:1" s="10" customFormat="1">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="10" customFormat="1"/>
-    <row r="7" spans="1:1" s="10" customFormat="1">
-      <c r="A7" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="10" customFormat="1"/>
-    <row r="9" spans="1:1" s="10" customFormat="1" ht="28.8">
-      <c r="A9" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000General Business</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D6BBBA-68A1-4584-AB8A-38833C4AB920}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>5</v>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="50">
+      <c r="A2" s="11">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="50">
+      <c r="A3" s="12">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="50">
+      <c r="A4" s="12">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="62.5">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="37.5">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="52.8">
-      <c r="A2" s="12">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="7" spans="1:2" ht="37.5">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="52.8">
-      <c r="A3" s="13">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="8" spans="1:2" ht="50">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="52.8">
-      <c r="A4" s="13">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="9" spans="1:2" ht="37.5">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="66">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="10" spans="1:2" ht="50">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="39.6">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="11" spans="1:2" ht="37.5">
+      <c r="A11" s="12">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="39.6">
-      <c r="A7" s="13">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="12" spans="1:2" ht="50">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="52.8">
-      <c r="A8" s="13">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="13" spans="1:2" ht="37.5">
+      <c r="A13" s="12">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="39.6">
-      <c r="A9" s="13">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="14" spans="1:2" ht="37.5">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="52.8">
-      <c r="A10" s="13">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="15" spans="1:2" ht="37.5">
+      <c r="A15" s="12">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="39.6">
-      <c r="A11" s="13">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="16" spans="1:2" ht="50">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="52.8">
-      <c r="A12" s="13">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="17" spans="1:2" ht="37.5">
+      <c r="A17" s="12">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="52.8">
-      <c r="A13" s="13">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="18" spans="1:2" ht="37.5">
+      <c r="A18" s="12">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="39.6">
-      <c r="A14" s="13">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="19" spans="1:2" ht="37.5">
+      <c r="A19" s="12">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="39.6">
-      <c r="A15" s="13">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="20" spans="1:2" ht="50">
+      <c r="A20" s="12">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="52.8">
-      <c r="A16" s="13">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="21" spans="1:2" ht="37.5">
+      <c r="A21" s="12">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="39.6">
-      <c r="A17" s="13">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="22" spans="1:2" ht="37.5">
+      <c r="A22" s="12">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="39.6">
-      <c r="A18" s="13">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="23" spans="1:2" ht="37.5">
+      <c r="A23" s="12">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="39.6">
-      <c r="A19" s="13">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="24" spans="1:2" ht="50">
+      <c r="A24" s="12">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="52.8">
-      <c r="A20" s="13">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="25" spans="1:2" ht="37.5">
+      <c r="A25" s="12">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="39.6">
-      <c r="A21" s="13">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="26" spans="1:2" ht="37.5">
+      <c r="A26" s="12">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="39.6">
-      <c r="A22" s="13">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="27" spans="1:2" ht="50">
+      <c r="A27" s="12">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="39.6">
-      <c r="A23" s="13">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="28" spans="1:2" ht="50">
+      <c r="A28" s="12">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="52.8">
-      <c r="A24" s="13">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="29" spans="1:2" ht="37.5">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="39.6">
-      <c r="A25" s="13">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="30" spans="1:2" ht="37.5">
+      <c r="A30" s="12">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="39.6">
-      <c r="A26" s="13">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="31" spans="1:2" ht="37.5">
+      <c r="A31" s="12">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="52.8">
-      <c r="A27" s="13">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="32" spans="1:2" ht="50">
+      <c r="A32" s="12">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="66">
-      <c r="A28" s="13">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="33" spans="1:2" ht="37.5">
+      <c r="A33" s="12">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="39.6">
-      <c r="A29" s="13">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="34" spans="1:2" ht="37.5">
+      <c r="A34" s="12">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="39.6">
-      <c r="A30" s="13">
-        <v>5</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="35" spans="1:2" ht="37.5">
+      <c r="A35" s="12">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="39.6">
-      <c r="A31" s="13">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="36" spans="1:2" ht="50">
+      <c r="A36" s="12">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="52.8">
-      <c r="A32" s="13">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="37" spans="1:2" ht="37.5">
+      <c r="A37" s="12">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="39.6">
-      <c r="A33" s="13">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="38" spans="1:2" ht="37.5">
+      <c r="A38" s="12">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="39.6">
-      <c r="A34" s="13">
-        <v>5</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="39" spans="1:2" ht="37.5">
+      <c r="A39" s="12">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="39.6">
-      <c r="A35" s="13">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="40" spans="1:2" ht="50">
+      <c r="A40" s="12">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="52.8">
-      <c r="A36" s="13">
-        <v>3</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="41" spans="1:2" ht="37.5">
+      <c r="A41" s="12">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="39.6">
-      <c r="A37" s="13">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="42" spans="1:2" ht="50">
+      <c r="A42" s="12">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="52.8">
-      <c r="A38" s="13">
-        <v>5</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="43" spans="1:2" ht="50">
+      <c r="A43" s="12">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="39.6">
-      <c r="A39" s="13">
-        <v>2</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="44" spans="1:2" ht="37.5">
+      <c r="A44" s="12">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="52.8">
-      <c r="A40" s="13">
-        <v>3</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="45" spans="1:2" ht="50">
+      <c r="A45" s="12">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="39.6">
-      <c r="A41" s="13">
-        <v>4</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="46" spans="1:2" ht="50">
+      <c r="A46" s="12">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="52.8">
-      <c r="A42" s="13">
-        <v>5</v>
-      </c>
-      <c r="B42" s="3" t="s">
+    <row r="47" spans="1:2" ht="50">
+      <c r="A47" s="12">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="52.8">
-      <c r="A43" s="13">
-        <v>3</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="48" spans="1:2" ht="50">
+      <c r="A48" s="12">
+        <v>3</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="39.6">
-      <c r="A44" s="13">
-        <v>2</v>
-      </c>
-      <c r="B44" s="3" t="s">
+    <row r="49" spans="1:2" ht="37.5">
+      <c r="A49" s="12">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="52.8">
-      <c r="A45" s="13">
-        <v>5</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    <row r="50" spans="1:2" ht="50">
+      <c r="A50" s="12">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="52.8">
-      <c r="A46" s="13">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="51" spans="1:2" ht="50">
+      <c r="A51" s="12">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="52.8">
-      <c r="A47" s="13">
-        <v>4</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    <row r="52" spans="1:2" ht="50">
+      <c r="A52" s="12">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="52.8">
-      <c r="A48" s="13">
-        <v>3</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="53" spans="1:2" ht="50">
+      <c r="A53" s="12">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="39.6">
-      <c r="A49" s="13">
-        <v>2</v>
-      </c>
-      <c r="B49" s="3" t="s">
+    <row r="54" spans="1:2" ht="50">
+      <c r="A54" s="12">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="52.8">
-      <c r="A50" s="13">
-        <v>5</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="55" spans="1:2" ht="50">
+      <c r="A55" s="12">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="52.8">
-      <c r="A51" s="13">
-        <v>1</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="56" spans="1:2" ht="50">
+      <c r="A56" s="12">
+        <v>1</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="52.8">
-      <c r="A52" s="13">
-        <v>2</v>
-      </c>
-      <c r="B52" s="3" t="s">
+    <row r="57" spans="1:2" ht="50">
+      <c r="A57" s="12">
+        <v>2</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="52.8">
-      <c r="A53" s="13">
-        <v>4</v>
-      </c>
-      <c r="B53" s="3" t="s">
+    <row r="58" spans="1:2" ht="50">
+      <c r="A58" s="12">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="52.8">
-      <c r="A54" s="13">
-        <v>3</v>
-      </c>
-      <c r="B54" s="3" t="s">
+    <row r="59" spans="1:2" ht="50">
+      <c r="A59" s="12">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="52.8">
-      <c r="A55" s="13">
-        <v>5</v>
-      </c>
-      <c r="B55" s="3" t="s">
+    <row r="60" spans="1:2" ht="50">
+      <c r="A60" s="12">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="52.8">
-      <c r="A56" s="13">
-        <v>1</v>
-      </c>
-      <c r="B56" s="3" t="s">
+    <row r="61" spans="1:2" ht="50">
+      <c r="A61" s="12">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="52.8">
-      <c r="A57" s="13">
-        <v>2</v>
-      </c>
-      <c r="B57" s="3" t="s">
+    <row r="62" spans="1:2" ht="50">
+      <c r="A62" s="12">
+        <v>3</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="52.8">
-      <c r="A58" s="13">
-        <v>4</v>
-      </c>
-      <c r="B58" s="3" t="s">
+    <row r="63" spans="1:2" ht="50">
+      <c r="A63" s="12">
+        <v>4</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="52.8">
-      <c r="A59" s="13">
-        <v>3</v>
-      </c>
-      <c r="B59" s="3" t="s">
+    <row r="64" spans="1:2" ht="50">
+      <c r="A64" s="12">
+        <v>2</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="52.8">
-      <c r="A60" s="13">
-        <v>5</v>
-      </c>
-      <c r="B60" s="3" t="s">
+    <row r="65" spans="1:2" ht="50">
+      <c r="A65" s="12">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="52.8">
-      <c r="A61" s="13">
-        <v>1</v>
-      </c>
-      <c r="B61" s="3" t="s">
+    <row r="66" spans="1:2" ht="62.5">
+      <c r="A66" s="12">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="52.8">
-      <c r="A62" s="13">
-        <v>3</v>
-      </c>
-      <c r="B62" s="3" t="s">
+    <row r="67" spans="1:2" ht="50">
+      <c r="A67" s="12">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="52.8">
-      <c r="A63" s="13">
-        <v>4</v>
-      </c>
-      <c r="B63" s="3" t="s">
+    <row r="68" spans="1:2" ht="37.5">
+      <c r="A68" s="12">
+        <v>4</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="52.8">
-      <c r="A64" s="13">
-        <v>2</v>
-      </c>
-      <c r="B64" s="3" t="s">
+    <row r="69" spans="1:2" ht="50">
+      <c r="A69" s="12">
+        <v>2</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="52.8">
-      <c r="A65" s="13">
-        <v>5</v>
-      </c>
-      <c r="B65" s="3" t="s">
+    <row r="70" spans="1:2" ht="50">
+      <c r="A70" s="12">
+        <v>5</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="66">
-      <c r="A66" s="13">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3" t="s">
+    <row r="71" spans="1:2" ht="62.5">
+      <c r="A71" s="12">
+        <v>1</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="52.8">
-      <c r="A67" s="13">
-        <v>3</v>
-      </c>
-      <c r="B67" s="3" t="s">
+    <row r="72" spans="1:2" ht="50">
+      <c r="A72" s="12">
+        <v>4</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="52.8">
-      <c r="A68" s="13">
-        <v>4</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    <row r="73" spans="1:2" ht="50">
+      <c r="A73" s="12">
+        <v>3</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="52.8">
-      <c r="A69" s="13">
-        <v>2</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="74" spans="1:2" ht="50">
+      <c r="A74" s="12">
+        <v>2</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="52.8">
-      <c r="A70" s="13">
-        <v>5</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    <row r="75" spans="1:2" ht="50">
+      <c r="A75" s="12">
+        <v>5</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="66">
-      <c r="A71" s="13">
-        <v>1</v>
-      </c>
-      <c r="B71" s="3" t="s">
+    <row r="76" spans="1:2" ht="62.5">
+      <c r="A76" s="12">
+        <v>1</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="52.8">
-      <c r="A72" s="13">
-        <v>4</v>
-      </c>
-      <c r="B72" s="3" t="s">
+    <row r="77" spans="1:2" ht="50">
+      <c r="A77" s="12">
+        <v>3</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="52.8">
-      <c r="A73" s="13">
-        <v>3</v>
-      </c>
-      <c r="B73" s="3" t="s">
+    <row r="78" spans="1:2" ht="50">
+      <c r="A78" s="12">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="52.8">
-      <c r="A74" s="13">
-        <v>2</v>
-      </c>
-      <c r="B74" s="3" t="s">
+    <row r="79" spans="1:2" ht="50">
+      <c r="A79" s="12">
+        <v>2</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="52.8">
-      <c r="A75" s="13">
-        <v>5</v>
-      </c>
-      <c r="B75" s="3" t="s">
+    <row r="80" spans="1:2" ht="50">
+      <c r="A80" s="12">
+        <v>5</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="66">
-      <c r="A76" s="13">
-        <v>1</v>
-      </c>
-      <c r="B76" s="3" t="s">
+    <row r="81" spans="1:2" ht="50">
+      <c r="A81" s="12">
+        <v>3</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="52.8">
-      <c r="A77" s="13">
-        <v>3</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="82" spans="1:2" ht="50">
+      <c r="A82" s="12">
+        <v>4</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="52.8">
-      <c r="A78" s="13">
-        <v>4</v>
-      </c>
-      <c r="B78" s="3" t="s">
+    <row r="83" spans="1:2" ht="50">
+      <c r="A83" s="12">
+        <v>2</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="52.8">
-      <c r="A79" s="13">
-        <v>2</v>
-      </c>
-      <c r="B79" s="3" t="s">
+    <row r="84" spans="1:2" ht="50">
+      <c r="A84" s="12">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="52.8">
-      <c r="A80" s="13">
-        <v>5</v>
-      </c>
-      <c r="B80" s="3" t="s">
+    <row r="85" spans="1:2" ht="50">
+      <c r="A85" s="12">
+        <v>3</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="52.8">
-      <c r="A81" s="13">
-        <v>3</v>
-      </c>
-      <c r="B81" s="3" t="s">
+    <row r="86" spans="1:2" ht="50">
+      <c r="A86" s="12">
+        <v>4</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="52.8">
-      <c r="A82" s="13">
-        <v>4</v>
-      </c>
-      <c r="B82" s="3" t="s">
+    <row r="87" spans="1:2" ht="50">
+      <c r="A87" s="12">
+        <v>1</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="52.8">
-      <c r="A83" s="13">
-        <v>2</v>
-      </c>
-      <c r="B83" s="3" t="s">
+    <row r="88" spans="1:2" ht="50">
+      <c r="A88" s="12">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="52.8">
-      <c r="A84" s="13">
-        <v>5</v>
-      </c>
-      <c r="B84" s="3" t="s">
+    <row r="89" spans="1:2" ht="50">
+      <c r="A89" s="12">
+        <v>4</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="52.8">
-      <c r="A85" s="13">
-        <v>3</v>
-      </c>
-      <c r="B85" s="3" t="s">
+    <row r="90" spans="1:2" ht="50">
+      <c r="A90" s="12">
+        <v>5</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="52.8">
-      <c r="A86" s="13">
-        <v>4</v>
-      </c>
-      <c r="B86" s="3" t="s">
+    <row r="91" spans="1:2" ht="50">
+      <c r="A91" s="12">
+        <v>2</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="52.8">
-      <c r="A87" s="13">
-        <v>1</v>
-      </c>
-      <c r="B87" s="3" t="s">
+    <row r="92" spans="1:2" ht="50">
+      <c r="A92" s="12">
+        <v>4</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="52.8">
-      <c r="A88" s="13">
-        <v>3</v>
-      </c>
-      <c r="B88" s="3" t="s">
+    <row r="93" spans="1:2" ht="50">
+      <c r="A93" s="12">
+        <v>5</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="52.8">
-      <c r="A89" s="13">
-        <v>4</v>
-      </c>
-      <c r="B89" s="3" t="s">
+    <row r="94" spans="1:2" ht="50">
+      <c r="A94" s="12">
+        <v>3</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="52.8">
-      <c r="A90" s="13">
-        <v>5</v>
-      </c>
-      <c r="B90" s="3" t="s">
+    <row r="95" spans="1:2" ht="50">
+      <c r="A95" s="12">
+        <v>2</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="52.8">
-      <c r="A91" s="13">
-        <v>2</v>
-      </c>
-      <c r="B91" s="3" t="s">
+    <row r="96" spans="1:2" ht="50">
+      <c r="A96" s="12">
+        <v>5</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="52.8">
-      <c r="A92" s="13">
-        <v>4</v>
-      </c>
-      <c r="B92" s="3" t="s">
+    <row r="97" spans="1:2" ht="50">
+      <c r="A97" s="12">
+        <v>3</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="52.8">
-      <c r="A93" s="13">
-        <v>5</v>
-      </c>
-      <c r="B93" s="3" t="s">
+    <row r="98" spans="1:2" ht="50">
+      <c r="A98" s="12">
+        <v>4</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="52.8">
-      <c r="A94" s="13">
-        <v>3</v>
-      </c>
-      <c r="B94" s="3" t="s">
+    <row r="99" spans="1:2" ht="50">
+      <c r="A99" s="12">
+        <v>5</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="52.8">
-      <c r="A95" s="13">
-        <v>2</v>
-      </c>
-      <c r="B95" s="3" t="s">
+    <row r="100" spans="1:2" ht="50">
+      <c r="A100" s="12">
+        <v>2</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="52.8">
-      <c r="A96" s="13">
-        <v>5</v>
-      </c>
-      <c r="B96" s="3" t="s">
+    <row r="101" spans="1:2" ht="50">
+      <c r="A101" s="12">
+        <v>3</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="52.8">
-      <c r="A97" s="13">
-        <v>3</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="52.8">
-      <c r="A98" s="13">
-        <v>4</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="52.8">
-      <c r="A99" s="13">
-        <v>5</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="52.8">
-      <c r="A100" s="13">
-        <v>2</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="52.8">
-      <c r="A101" s="13">
-        <v>3</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFA42FE-5813-4DFA-B2B5-D16CA2C8CC88}">
   <dimension ref="A1:B101"/>
   <sheetViews>
@@ -2370,818 +2291,818 @@
       <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="67.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="13"/>
+    <col min="2" max="2" width="67.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>5</v>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="92.4">
-      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="87.5">
+      <c r="A2" s="11">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="100">
+      <c r="A3" s="12">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="100">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="87.5">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="62.5">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="87.5">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105.6">
-      <c r="A3" s="13">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="8" spans="1:2" ht="75">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105.6">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="9" spans="1:2" ht="100">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="92.4">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="10" spans="1:2" ht="87.5">
+      <c r="A10" s="12">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="66">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="11" spans="1:2" ht="75">
+      <c r="A11" s="12">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="92.4">
-      <c r="A7" s="13">
-        <v>2</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="12" spans="1:2" ht="62.5">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="79.2">
-      <c r="A8" s="13">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="13" spans="1:2" ht="87.5">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105.6">
-      <c r="A9" s="13">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="14" spans="1:2" ht="87.5">
+      <c r="A14" s="12">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="92.4">
-      <c r="A10" s="13">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="15" spans="1:2" ht="87.5">
+      <c r="A15" s="12">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="79.2">
-      <c r="A11" s="13">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="16" spans="1:2" ht="87.5">
+      <c r="A16" s="12">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="66">
-      <c r="A12" s="13">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="17" spans="1:2" ht="62.5">
+      <c r="A17" s="12">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="92.4">
-      <c r="A13" s="13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="18" spans="1:2" ht="62.5">
+      <c r="A18" s="12">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="92.4">
-      <c r="A14" s="13">
-        <v>4</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="19" spans="1:2" ht="87.5">
+      <c r="A19" s="12">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="92.4">
-      <c r="A15" s="13">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    <row r="20" spans="1:2" ht="87.5">
+      <c r="A20" s="12">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="92.4">
-      <c r="A16" s="13">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7" t="s">
+    <row r="21" spans="1:2" ht="87.5">
+      <c r="A21" s="12">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="79.2">
-      <c r="A17" s="13">
-        <v>4</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="22" spans="1:2" ht="75">
+      <c r="A22" s="12">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="66">
-      <c r="A18" s="13">
-        <v>3</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="23" spans="1:2" ht="87.5">
+      <c r="A23" s="12">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="105.6">
-      <c r="A19" s="13">
-        <v>2</v>
-      </c>
-      <c r="B19" s="7" t="s">
+    <row r="24" spans="1:2" ht="62.5">
+      <c r="A24" s="12">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="92.4">
-      <c r="A20" s="13">
-        <v>5</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    <row r="25" spans="1:2" ht="87.5">
+      <c r="A25" s="12">
+        <v>5</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="92.4">
-      <c r="A21" s="13">
-        <v>1</v>
-      </c>
-      <c r="B21" s="7" t="s">
+    <row r="26" spans="1:2" ht="87.5">
+      <c r="A26" s="12">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="79.2">
-      <c r="A22" s="13">
-        <v>3</v>
-      </c>
-      <c r="B22" s="7" t="s">
+    <row r="27" spans="1:2" ht="75">
+      <c r="A27" s="12">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="105.6">
-      <c r="A23" s="13">
-        <v>4</v>
-      </c>
-      <c r="B23" s="7" t="s">
+    <row r="28" spans="1:2" ht="75">
+      <c r="A28" s="12">
+        <v>4</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="79.2">
-      <c r="A24" s="13">
-        <v>2</v>
-      </c>
-      <c r="B24" s="7" t="s">
+    <row r="29" spans="1:2" ht="62.5">
+      <c r="A29" s="12">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="92.4">
-      <c r="A25" s="13">
-        <v>5</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="30" spans="1:2" ht="62.5">
+      <c r="A30" s="12">
+        <v>5</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="92.4">
-      <c r="A26" s="13">
-        <v>1</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="31" spans="1:2" ht="87.5">
+      <c r="A31" s="12">
+        <v>1</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="79.2">
-      <c r="A27" s="13">
-        <v>3</v>
-      </c>
-      <c r="B27" s="7" t="s">
+    <row r="32" spans="1:2" ht="62.5">
+      <c r="A32" s="12">
+        <v>4</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="79.2">
-      <c r="A28" s="13">
-        <v>4</v>
-      </c>
-      <c r="B28" s="7" t="s">
+    <row r="33" spans="1:2" ht="62.5">
+      <c r="A33" s="12">
+        <v>2</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="66">
-      <c r="A29" s="13">
-        <v>2</v>
-      </c>
-      <c r="B29" s="7" t="s">
+    <row r="34" spans="1:2" ht="62.5">
+      <c r="A34" s="12">
+        <v>5</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="66">
-      <c r="A30" s="13">
-        <v>5</v>
-      </c>
-      <c r="B30" s="7" t="s">
+    <row r="35" spans="1:2" ht="62.5">
+      <c r="A35" s="12">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="87.5">
+      <c r="A36" s="12">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="92.4">
-      <c r="A31" s="13">
-        <v>1</v>
-      </c>
-      <c r="B31" s="7" t="s">
+    <row r="37" spans="1:2" ht="62.5">
+      <c r="A37" s="12">
+        <v>2</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="66">
-      <c r="A32" s="13">
-        <v>4</v>
-      </c>
-      <c r="B32" s="7" t="s">
+    <row r="38" spans="1:2" ht="75">
+      <c r="A38" s="12">
+        <v>4</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="66">
-      <c r="A33" s="13">
-        <v>2</v>
-      </c>
-      <c r="B33" s="7" t="s">
+    <row r="39" spans="1:2" ht="75">
+      <c r="A39" s="12">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="66">
-      <c r="A34" s="13">
-        <v>5</v>
-      </c>
-      <c r="B34" s="7" t="s">
+    <row r="40" spans="1:2" ht="75">
+      <c r="A40" s="12">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="66">
-      <c r="A35" s="13">
-        <v>3</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="92.4">
-      <c r="A36" s="13">
-        <v>1</v>
-      </c>
-      <c r="B36" s="7" t="s">
+    <row r="41" spans="1:2" ht="87.5">
+      <c r="A41" s="12">
+        <v>1</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="66">
-      <c r="A37" s="13">
-        <v>2</v>
-      </c>
-      <c r="B37" s="7" t="s">
+    <row r="42" spans="1:2" ht="62.5">
+      <c r="A42" s="12">
+        <v>2</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="79.2">
-      <c r="A38" s="13">
-        <v>4</v>
-      </c>
-      <c r="B38" s="7" t="s">
+    <row r="43" spans="1:2" ht="75">
+      <c r="A43" s="12">
+        <v>4</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="79.2">
-      <c r="A39" s="13">
-        <v>5</v>
-      </c>
-      <c r="B39" s="7" t="s">
+    <row r="44" spans="1:2" ht="62.5">
+      <c r="A44" s="12">
+        <v>5</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="79.2">
-      <c r="A40" s="13">
-        <v>3</v>
-      </c>
-      <c r="B40" s="7" t="s">
+    <row r="45" spans="1:2" ht="75">
+      <c r="A45" s="12">
+        <v>3</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="92.4">
-      <c r="A41" s="13">
-        <v>1</v>
-      </c>
-      <c r="B41" s="7" t="s">
+    <row r="46" spans="1:2" ht="87.5">
+      <c r="A46" s="12">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="66">
-      <c r="A42" s="13">
-        <v>2</v>
-      </c>
-      <c r="B42" s="7" t="s">
+    <row r="47" spans="1:2" ht="62.5">
+      <c r="A47" s="12">
+        <v>2</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="79.2">
-      <c r="A43" s="13">
-        <v>4</v>
-      </c>
-      <c r="B43" s="7" t="s">
+    <row r="48" spans="1:2" ht="75">
+      <c r="A48" s="12">
+        <v>4</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="66">
-      <c r="A44" s="13">
-        <v>5</v>
-      </c>
-      <c r="B44" s="7" t="s">
+    <row r="49" spans="1:2" ht="75">
+      <c r="A49" s="12">
+        <v>5</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="79.2">
-      <c r="A45" s="13">
-        <v>3</v>
-      </c>
-      <c r="B45" s="7" t="s">
+    <row r="50" spans="1:2" ht="75">
+      <c r="A50" s="12">
+        <v>3</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="92.4">
-      <c r="A46" s="13">
-        <v>1</v>
-      </c>
-      <c r="B46" s="7" t="s">
+    <row r="51" spans="1:2" ht="87.5">
+      <c r="A51" s="12">
+        <v>1</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="66">
-      <c r="A47" s="13">
-        <v>2</v>
-      </c>
-      <c r="B47" s="7" t="s">
+    <row r="52" spans="1:2" ht="87.5">
+      <c r="A52" s="12">
+        <v>4</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="79.2">
-      <c r="A48" s="13">
-        <v>4</v>
-      </c>
-      <c r="B48" s="7" t="s">
+    <row r="53" spans="1:2" ht="75">
+      <c r="A53" s="12">
+        <v>2</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="79.2">
-      <c r="A49" s="13">
-        <v>5</v>
-      </c>
-      <c r="B49" s="7" t="s">
+    <row r="54" spans="1:2" ht="75">
+      <c r="A54" s="12">
+        <v>5</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="79.2">
-      <c r="A50" s="13">
-        <v>3</v>
-      </c>
-      <c r="B50" s="7" t="s">
+    <row r="55" spans="1:2" ht="75">
+      <c r="A55" s="12">
+        <v>3</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="92.4">
-      <c r="A51" s="13">
-        <v>1</v>
-      </c>
-      <c r="B51" s="7" t="s">
+    <row r="56" spans="1:2" ht="87.5">
+      <c r="A56" s="12">
+        <v>1</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="92.4">
-      <c r="A52" s="13">
-        <v>4</v>
-      </c>
-      <c r="B52" s="7" t="s">
+    <row r="57" spans="1:2" ht="62.5">
+      <c r="A57" s="12">
+        <v>2</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="75">
+      <c r="A58" s="12">
+        <v>4</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="79.2">
-      <c r="A53" s="13">
-        <v>2</v>
-      </c>
-      <c r="B53" s="7" t="s">
+    <row r="59" spans="1:2" ht="62.5">
+      <c r="A59" s="12">
+        <v>5</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="79.2">
-      <c r="A54" s="13">
-        <v>5</v>
-      </c>
-      <c r="B54" s="7" t="s">
+    <row r="60" spans="1:2" ht="75">
+      <c r="A60" s="12">
+        <v>3</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="62.5">
+      <c r="A61" s="12">
+        <v>1</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="79.2">
-      <c r="A55" s="13">
-        <v>3</v>
-      </c>
-      <c r="B55" s="7" t="s">
+    <row r="62" spans="1:2" ht="75">
+      <c r="A62" s="12">
+        <v>3</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="92.4">
-      <c r="A56" s="13">
-        <v>1</v>
-      </c>
-      <c r="B56" s="7" t="s">
+    <row r="63" spans="1:2" ht="87.5">
+      <c r="A63" s="12">
+        <v>4</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="66">
-      <c r="A57" s="13">
-        <v>2</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="79.2">
-      <c r="A58" s="13">
-        <v>4</v>
-      </c>
-      <c r="B58" s="7" t="s">
+    <row r="64" spans="1:2" ht="50">
+      <c r="A64" s="12">
+        <v>5</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="66">
-      <c r="A59" s="13">
-        <v>5</v>
-      </c>
-      <c r="B59" s="7" t="s">
+    <row r="65" spans="1:2" ht="75">
+      <c r="A65" s="12">
+        <v>2</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="79.2">
-      <c r="A60" s="13">
-        <v>3</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="79.2">
-      <c r="A61" s="13">
-        <v>1</v>
-      </c>
-      <c r="B61" s="7" t="s">
+    <row r="66" spans="1:2" ht="62.5">
+      <c r="A66" s="12">
+        <v>1</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="79.2">
-      <c r="A62" s="13">
-        <v>3</v>
-      </c>
-      <c r="B62" s="7" t="s">
+    <row r="67" spans="1:2" ht="62.5">
+      <c r="A67" s="12">
+        <v>5</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="92.4">
-      <c r="A63" s="13">
-        <v>4</v>
-      </c>
-      <c r="B63" s="7" t="s">
+    <row r="68" spans="1:2" ht="75">
+      <c r="A68" s="12">
+        <v>3</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="52.8">
-      <c r="A64" s="13">
-        <v>5</v>
-      </c>
-      <c r="B64" s="7" t="s">
+    <row r="69" spans="1:2" ht="75">
+      <c r="A69" s="12">
+        <v>2</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="79.2">
-      <c r="A65" s="13">
-        <v>2</v>
-      </c>
-      <c r="B65" s="7" t="s">
+    <row r="70" spans="1:2" ht="75">
+      <c r="A70" s="12">
+        <v>4</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="66">
-      <c r="A66" s="13">
-        <v>1</v>
-      </c>
-      <c r="B66" s="7" t="s">
+    <row r="71" spans="1:2" ht="75">
+      <c r="A71" s="12">
+        <v>1</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="66">
-      <c r="A67" s="13">
-        <v>5</v>
-      </c>
-      <c r="B67" s="7" t="s">
+    <row r="72" spans="1:2" ht="50">
+      <c r="A72" s="12">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="79.2">
-      <c r="A68" s="13">
-        <v>3</v>
-      </c>
-      <c r="B68" s="7" t="s">
+    <row r="73" spans="1:2" ht="50">
+      <c r="A73" s="12">
+        <v>5</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="79.2">
-      <c r="A69" s="13">
-        <v>2</v>
-      </c>
-      <c r="B69" s="7" t="s">
+    <row r="74" spans="1:2" ht="75">
+      <c r="A74" s="12">
+        <v>2</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="92.4">
-      <c r="A70" s="13">
-        <v>4</v>
-      </c>
-      <c r="B70" s="7" t="s">
+    <row r="75" spans="1:2" ht="87.5">
+      <c r="A75" s="12">
+        <v>4</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="79.2">
-      <c r="A71" s="13">
-        <v>1</v>
-      </c>
-      <c r="B71" s="7" t="s">
+    <row r="76" spans="1:2" ht="75">
+      <c r="A76" s="12">
+        <v>1</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="66">
-      <c r="A72" s="13">
-        <v>3</v>
-      </c>
-      <c r="B72" s="7" t="s">
+    <row r="77" spans="1:2" ht="62.5">
+      <c r="A77" s="12">
+        <v>3</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="52.8">
-      <c r="A73" s="13">
-        <v>5</v>
-      </c>
-      <c r="B73" s="7" t="s">
+    <row r="78" spans="1:2" ht="62.5">
+      <c r="A78" s="12">
+        <v>2</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="79.2">
-      <c r="A74" s="13">
-        <v>2</v>
-      </c>
-      <c r="B74" s="7" t="s">
+    <row r="79" spans="1:2" ht="62.5">
+      <c r="A79" s="12">
+        <v>5</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="92.4">
-      <c r="A75" s="13">
-        <v>4</v>
-      </c>
-      <c r="B75" s="7" t="s">
+    <row r="80" spans="1:2" ht="62.5">
+      <c r="A80" s="12">
+        <v>4</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="79.2">
-      <c r="A76" s="13">
-        <v>1</v>
-      </c>
-      <c r="B76" s="7" t="s">
+    <row r="81" spans="1:2" ht="75">
+      <c r="A81" s="12">
+        <v>3</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="66">
-      <c r="A77" s="13">
-        <v>3</v>
-      </c>
-      <c r="B77" s="7" t="s">
+    <row r="82" spans="1:2" ht="87.5">
+      <c r="A82" s="12">
+        <v>1</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="66">
-      <c r="A78" s="13">
-        <v>2</v>
-      </c>
-      <c r="B78" s="7" t="s">
+    <row r="83" spans="1:2" ht="62.5">
+      <c r="A83" s="12">
+        <v>4</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="66">
-      <c r="A79" s="13">
-        <v>5</v>
-      </c>
-      <c r="B79" s="7" t="s">
+    <row r="84" spans="1:2" ht="62.5">
+      <c r="A84" s="12">
+        <v>5</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="66">
-      <c r="A80" s="13">
-        <v>4</v>
-      </c>
-      <c r="B80" s="7" t="s">
+    <row r="85" spans="1:2" ht="50">
+      <c r="A85" s="12">
+        <v>2</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="79.2">
-      <c r="A81" s="13">
-        <v>3</v>
-      </c>
-      <c r="B81" s="7" t="s">
+    <row r="86" spans="1:2" ht="62.5">
+      <c r="A86" s="12">
+        <v>3</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="92.4">
-      <c r="A82" s="13">
-        <v>1</v>
-      </c>
-      <c r="B82" s="7" t="s">
+    <row r="87" spans="1:2" ht="50">
+      <c r="A87" s="12">
+        <v>2</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="66">
-      <c r="A83" s="13">
-        <v>4</v>
-      </c>
-      <c r="B83" s="7" t="s">
+    <row r="88" spans="1:2" ht="62.5">
+      <c r="A88" s="12">
+        <v>4</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="66">
-      <c r="A84" s="13">
-        <v>5</v>
-      </c>
-      <c r="B84" s="7" t="s">
+    <row r="89" spans="1:2" ht="50">
+      <c r="A89" s="12">
+        <v>3</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="52.8">
-      <c r="A85" s="13">
-        <v>2</v>
-      </c>
-      <c r="B85" s="7" t="s">
+    <row r="90" spans="1:2" ht="75">
+      <c r="A90" s="12">
+        <v>1</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="66">
-      <c r="A86" s="13">
-        <v>3</v>
-      </c>
-      <c r="B86" s="7" t="s">
+    <row r="91" spans="1:2" ht="50">
+      <c r="A91" s="12">
+        <v>5</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="66">
-      <c r="A87" s="13">
-        <v>2</v>
-      </c>
-      <c r="B87" s="7" t="s">
+    <row r="92" spans="1:2" ht="62.5">
+      <c r="A92" s="12">
+        <v>2</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="66">
-      <c r="A88" s="13">
-        <v>4</v>
-      </c>
-      <c r="B88" s="7" t="s">
+    <row r="93" spans="1:2" ht="50">
+      <c r="A93" s="12">
+        <v>3</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="52.8">
-      <c r="A89" s="13">
-        <v>3</v>
-      </c>
-      <c r="B89" s="7" t="s">
+    <row r="94" spans="1:2" ht="62.5">
+      <c r="A94" s="12">
+        <v>4</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="92.4">
-      <c r="A90" s="13">
-        <v>1</v>
-      </c>
-      <c r="B90" s="7" t="s">
+    <row r="95" spans="1:2" ht="87.5">
+      <c r="A95" s="12">
+        <v>1</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="52.8">
-      <c r="A91" s="13">
-        <v>5</v>
-      </c>
-      <c r="B91" s="7" t="s">
+    <row r="96" spans="1:2" ht="62.5">
+      <c r="A96" s="12">
+        <v>5</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="66">
-      <c r="A92" s="13">
-        <v>2</v>
-      </c>
-      <c r="B92" s="7" t="s">
+    <row r="97" spans="1:2" ht="75">
+      <c r="A97" s="12">
+        <v>2</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="52.8">
-      <c r="A93" s="13">
-        <v>3</v>
-      </c>
-      <c r="B93" s="7" t="s">
+    <row r="98" spans="1:2" ht="62.5">
+      <c r="A98" s="12">
+        <v>4</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="66">
-      <c r="A94" s="13">
-        <v>4</v>
-      </c>
-      <c r="B94" s="7" t="s">
+    <row r="99" spans="1:2" ht="62.5">
+      <c r="A99" s="12">
+        <v>3</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="92.4">
-      <c r="A95" s="13">
-        <v>1</v>
-      </c>
-      <c r="B95" s="7" t="s">
+    <row r="100" spans="1:2" ht="62.5">
+      <c r="A100" s="12">
+        <v>5</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="66">
-      <c r="A96" s="13">
-        <v>5</v>
-      </c>
-      <c r="B96" s="7" t="s">
+    <row r="101" spans="1:2" ht="75">
+      <c r="A101" s="12">
+        <v>1</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="79.2">
-      <c r="A97" s="13">
-        <v>2</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="66">
-      <c r="A98" s="13">
-        <v>4</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="66">
-      <c r="A99" s="13">
-        <v>3</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="66">
-      <c r="A100" s="13">
-        <v>5</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="79.2">
-      <c r="A101" s="13">
-        <v>1</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3189,826 +3110,826 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333E98BA-A501-440A-B720-6289509F0DB9}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="77.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="13"/>
+    <col min="2" max="2" width="77.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
-        <v>5</v>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="72">
-      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72.5">
+      <c r="A2" s="15">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="87">
+      <c r="A4" s="16">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="101.5">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72.5">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="58">
+      <c r="A7" s="16">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="72">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="8" spans="1:2" ht="43.5">
+      <c r="A8" s="16">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="86.4">
-      <c r="A4" s="17">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="9" spans="1:2" ht="72.5">
+      <c r="A9" s="16">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="100.8">
-      <c r="A5" s="17">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="10" spans="1:2" ht="116">
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="72">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="11" spans="1:2" ht="72.5">
+      <c r="A11" s="16">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="57.6">
-      <c r="A7" s="17">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="12" spans="1:2" ht="58">
+      <c r="A12" s="16">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.2">
-      <c r="A8" s="17">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="13" spans="1:2" ht="58">
+      <c r="A13" s="16">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="72">
-      <c r="A9" s="17">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="14" spans="1:2" ht="72.5">
+      <c r="A14" s="16">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="115.2">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="15" spans="1:2" ht="43.5">
+      <c r="A15" s="16">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="72">
-      <c r="A11" s="17">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row r="16" spans="1:2" ht="101.5">
+      <c r="A16" s="16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="57.6">
-      <c r="A12" s="17">
-        <v>3</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="17" spans="1:2" ht="58">
+      <c r="A17" s="16">
+        <v>2</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="43.2">
-      <c r="A13" s="17">
-        <v>2</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="18" spans="1:2" ht="58">
+      <c r="A18" s="16">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72">
-      <c r="A14" s="17">
-        <v>4</v>
-      </c>
-      <c r="B14" s="9" t="s">
+    <row r="19" spans="1:2" ht="58">
+      <c r="A19" s="16">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.2">
-      <c r="A15" s="17">
-        <v>5</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    <row r="20" spans="1:2" ht="72.5">
+      <c r="A20" s="16">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="100.8">
-      <c r="A16" s="17">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
+    <row r="21" spans="1:2" ht="87">
+      <c r="A21" s="16">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="57.6">
-      <c r="A17" s="17">
-        <v>2</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="22" spans="1:2" ht="58">
+      <c r="A22" s="16">
+        <v>2</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="57.6">
-      <c r="A18" s="17">
-        <v>4</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    <row r="23" spans="1:2" ht="58">
+      <c r="A23" s="16">
+        <v>3</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="57.6">
-      <c r="A19" s="17">
-        <v>5</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row r="24" spans="1:2" ht="72.5">
+      <c r="A24" s="16">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="72">
-      <c r="A20" s="17">
-        <v>3</v>
-      </c>
-      <c r="B20" s="9" t="s">
+    <row r="25" spans="1:2" ht="58">
+      <c r="A25" s="16">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="86.4">
-      <c r="A21" s="17">
-        <v>1</v>
-      </c>
-      <c r="B21" s="9" t="s">
+    <row r="26" spans="1:2" ht="72.5">
+      <c r="A26" s="16">
+        <v>3</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="57.6">
-      <c r="A22" s="17">
-        <v>2</v>
-      </c>
-      <c r="B22" s="9" t="s">
+    <row r="27" spans="1:2" ht="72.5">
+      <c r="A27" s="16">
+        <v>2</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="57.6">
-      <c r="A23" s="17">
-        <v>3</v>
-      </c>
-      <c r="B23" s="9" t="s">
+    <row r="28" spans="1:2" ht="72.5">
+      <c r="A28" s="16">
+        <v>4</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="72">
-      <c r="A24" s="17">
-        <v>4</v>
-      </c>
-      <c r="B24" s="9" t="s">
+    <row r="29" spans="1:2" ht="58">
+      <c r="A29" s="16">
+        <v>3</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="57.6">
-      <c r="A25" s="17">
-        <v>5</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="30" spans="1:2" ht="58">
+      <c r="A30" s="16">
+        <v>5</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="72">
-      <c r="A26" s="17">
-        <v>3</v>
-      </c>
-      <c r="B26" s="9" t="s">
+    <row r="31" spans="1:2" ht="58">
+      <c r="A31" s="16">
+        <v>2</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="72">
-      <c r="A27" s="17">
-        <v>2</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    <row r="32" spans="1:2" ht="72.5">
+      <c r="A32" s="16">
+        <v>1</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="72">
-      <c r="A28" s="17">
-        <v>4</v>
-      </c>
-      <c r="B28" s="9" t="s">
+    <row r="33" spans="1:2" ht="72.5">
+      <c r="A33" s="16">
+        <v>3</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="57.6">
-      <c r="A29" s="17">
-        <v>3</v>
-      </c>
-      <c r="B29" s="9" t="s">
+    <row r="34" spans="1:2" ht="58">
+      <c r="A34" s="16">
+        <v>2</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="57.6">
-      <c r="A30" s="17">
-        <v>5</v>
-      </c>
-      <c r="B30" s="9" t="s">
+    <row r="35" spans="1:2" ht="87">
+      <c r="A35" s="16">
+        <v>4</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="57.6">
-      <c r="A31" s="17">
-        <v>2</v>
-      </c>
-      <c r="B31" s="9" t="s">
+    <row r="36" spans="1:2" ht="58">
+      <c r="A36" s="16">
+        <v>5</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="57.6">
-      <c r="A32" s="17">
-        <v>1</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="37" spans="1:2" ht="72.5">
+      <c r="A37" s="16">
+        <v>3</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="57.6">
-      <c r="A33" s="17">
-        <v>3</v>
-      </c>
-      <c r="B33" s="9" t="s">
+    <row r="38" spans="1:2" ht="87">
+      <c r="A38" s="16">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="57.6">
-      <c r="A34" s="17">
-        <v>2</v>
-      </c>
-      <c r="B34" s="9" t="s">
+    <row r="39" spans="1:2" ht="72.5">
+      <c r="A39" s="16">
+        <v>1</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="86.4">
-      <c r="A35" s="17">
-        <v>4</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row r="40" spans="1:2" ht="87">
+      <c r="A40" s="16">
+        <v>4</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="57.6">
-      <c r="A36" s="17">
-        <v>5</v>
-      </c>
-      <c r="B36" s="9" t="s">
+    <row r="41" spans="1:2" ht="58">
+      <c r="A41" s="16">
+        <v>5</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="57.6">
-      <c r="A37" s="17">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="42" spans="1:2" ht="72.5">
+      <c r="A42" s="16">
+        <v>3</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="86.4">
-      <c r="A38" s="17">
-        <v>2</v>
-      </c>
-      <c r="B38" s="9" t="s">
+    <row r="43" spans="1:2" ht="72.5">
+      <c r="A43" s="16">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="72">
-      <c r="A39" s="17">
-        <v>1</v>
-      </c>
-      <c r="B39" s="9" t="s">
+    <row r="44" spans="1:2" ht="87">
+      <c r="A44" s="16">
+        <v>1</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="86.4">
-      <c r="A40" s="17">
-        <v>4</v>
-      </c>
-      <c r="B40" s="9" t="s">
+    <row r="45" spans="1:2" ht="58">
+      <c r="A45" s="16">
+        <v>4</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="57.6">
-      <c r="A41" s="17">
-        <v>5</v>
-      </c>
-      <c r="B41" s="9" t="s">
+    <row r="46" spans="1:2" ht="72.5">
+      <c r="A46" s="16">
+        <v>5</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="72">
-      <c r="A42" s="17">
-        <v>3</v>
-      </c>
-      <c r="B42" s="9" t="s">
+    <row r="47" spans="1:2" ht="58">
+      <c r="A47" s="16">
+        <v>3</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="72">
-      <c r="A43" s="17">
-        <v>2</v>
-      </c>
-      <c r="B43" s="9" t="s">
+    <row r="48" spans="1:2" ht="72.5">
+      <c r="A48" s="16">
+        <v>4</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="72">
-      <c r="A44" s="17">
-        <v>1</v>
-      </c>
-      <c r="B44" s="9" t="s">
+    <row r="49" spans="1:2" ht="72.5">
+      <c r="A49" s="16">
+        <v>2</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="57.6">
-      <c r="A45" s="17">
-        <v>4</v>
-      </c>
-      <c r="B45" s="9" t="s">
+    <row r="50" spans="1:2" ht="58">
+      <c r="A50" s="16">
+        <v>5</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="72">
-      <c r="A46" s="17">
-        <v>5</v>
-      </c>
-      <c r="B46" s="9" t="s">
+    <row r="51" spans="1:2" ht="87">
+      <c r="A51" s="16">
+        <v>1</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="57.6">
-      <c r="A47" s="17">
-        <v>3</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row r="52" spans="1:2" ht="72.5">
+      <c r="A52" s="16">
+        <v>4</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="72">
-      <c r="A48" s="17">
-        <v>4</v>
-      </c>
-      <c r="B48" s="9" t="s">
+    <row r="53" spans="1:2" ht="72.5">
+      <c r="A53" s="16">
+        <v>3</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="72">
-      <c r="A49" s="17">
-        <v>2</v>
-      </c>
-      <c r="B49" s="9" t="s">
+    <row r="54" spans="1:2" ht="72.5">
+      <c r="A54" s="16">
+        <v>5</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="57.6">
-      <c r="A50" s="17">
-        <v>5</v>
-      </c>
-      <c r="B50" s="9" t="s">
+    <row r="55" spans="1:2" ht="58">
+      <c r="A55" s="16">
+        <v>2</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="72">
-      <c r="A51" s="17">
-        <v>1</v>
-      </c>
-      <c r="B51" s="9" t="s">
+    <row r="56" spans="1:2" ht="72.5">
+      <c r="A56" s="16">
+        <v>1</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="72">
-      <c r="A52" s="17">
-        <v>4</v>
-      </c>
-      <c r="B52" s="9" t="s">
+    <row r="57" spans="1:2" ht="72.5">
+      <c r="A57" s="16">
+        <v>5</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="72">
-      <c r="A53" s="17">
-        <v>3</v>
-      </c>
-      <c r="B53" s="9" t="s">
+    <row r="58" spans="1:2" ht="72.5">
+      <c r="A58" s="16">
+        <v>4</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="72">
-      <c r="A54" s="17">
-        <v>5</v>
-      </c>
-      <c r="B54" s="9" t="s">
+    <row r="59" spans="1:2" ht="72.5">
+      <c r="A59" s="16">
+        <v>3</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="57.6">
-      <c r="A55" s="17">
-        <v>2</v>
-      </c>
-      <c r="B55" s="9" t="s">
+    <row r="60" spans="1:2" ht="72.5">
+      <c r="A60" s="16">
+        <v>2</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="72">
-      <c r="A56" s="17">
-        <v>1</v>
-      </c>
-      <c r="B56" s="9" t="s">
+    <row r="61" spans="1:2" ht="87">
+      <c r="A61" s="16">
+        <v>1</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="72">
-      <c r="A57" s="17">
-        <v>5</v>
-      </c>
-      <c r="B57" s="9" t="s">
+    <row r="62" spans="1:2" ht="72.5">
+      <c r="A62" s="16">
+        <v>5</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="72">
-      <c r="A58" s="17">
-        <v>4</v>
-      </c>
-      <c r="B58" s="9" t="s">
+    <row r="63" spans="1:2" ht="72.5">
+      <c r="A63" s="16">
+        <v>4</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="72">
-      <c r="A59" s="17">
-        <v>3</v>
-      </c>
-      <c r="B59" s="9" t="s">
+    <row r="64" spans="1:2" ht="72.5">
+      <c r="A64" s="16">
+        <v>3</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="72">
-      <c r="A60" s="17">
-        <v>2</v>
-      </c>
-      <c r="B60" s="9" t="s">
+    <row r="65" spans="1:2" ht="58">
+      <c r="A65" s="16">
+        <v>2</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="72">
-      <c r="A61" s="17">
-        <v>1</v>
-      </c>
-      <c r="B61" s="9" t="s">
+    <row r="66" spans="1:2" ht="58">
+      <c r="A66" s="16">
+        <v>1</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="72">
-      <c r="A62" s="17">
-        <v>5</v>
-      </c>
-      <c r="B62" s="9" t="s">
+    <row r="67" spans="1:2" ht="72.5">
+      <c r="A67" s="16">
+        <v>3</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="72">
-      <c r="A63" s="17">
-        <v>4</v>
-      </c>
-      <c r="B63" s="9" t="s">
+    <row r="68" spans="1:2" ht="58">
+      <c r="A68" s="16">
+        <v>4</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="57.6">
-      <c r="A64" s="17">
-        <v>3</v>
-      </c>
-      <c r="B64" s="9" t="s">
+    <row r="69" spans="1:2" ht="58">
+      <c r="A69" s="16">
+        <v>2</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="57.6">
-      <c r="A65" s="17">
-        <v>2</v>
-      </c>
-      <c r="B65" s="9" t="s">
+    <row r="70" spans="1:2" ht="72.5">
+      <c r="A70" s="16">
+        <v>5</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="57.6">
-      <c r="A66" s="17">
-        <v>1</v>
-      </c>
-      <c r="B66" s="9" t="s">
+    <row r="71" spans="1:2" ht="43.5">
+      <c r="A71" s="16">
+        <v>1</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="72">
-      <c r="A67" s="17">
-        <v>3</v>
-      </c>
-      <c r="B67" s="9" t="s">
+    <row r="72" spans="1:2" ht="72.5">
+      <c r="A72" s="16">
+        <v>3</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="57.6">
-      <c r="A68" s="17">
-        <v>4</v>
-      </c>
-      <c r="B68" s="9" t="s">
+    <row r="73" spans="1:2" ht="72.5">
+      <c r="A73" s="16">
+        <v>4</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="57.6">
-      <c r="A69" s="17">
-        <v>2</v>
-      </c>
-      <c r="B69" s="9" t="s">
+    <row r="74" spans="1:2" ht="72.5">
+      <c r="A74" s="16">
+        <v>2</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="72">
-      <c r="A70" s="17">
-        <v>5</v>
-      </c>
-      <c r="B70" s="9" t="s">
+    <row r="75" spans="1:2" ht="72.5">
+      <c r="A75" s="16">
+        <v>5</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="43.2">
-      <c r="A71" s="17">
-        <v>1</v>
-      </c>
-      <c r="B71" s="9" t="s">
+    <row r="76" spans="1:2" ht="43.5">
+      <c r="A76" s="16">
+        <v>1</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="72">
-      <c r="A72" s="17">
-        <v>3</v>
-      </c>
-      <c r="B72" s="9" t="s">
+    <row r="77" spans="1:2" ht="58">
+      <c r="A77" s="16">
+        <v>3</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="72">
-      <c r="A73" s="17">
-        <v>4</v>
-      </c>
-      <c r="B73" s="9" t="s">
+    <row r="78" spans="1:2" ht="43.5">
+      <c r="A78" s="16">
+        <v>2</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="72">
-      <c r="A74" s="17">
-        <v>2</v>
-      </c>
-      <c r="B74" s="9" t="s">
+    <row r="79" spans="1:2" ht="72.5">
+      <c r="A79" s="16">
+        <v>4</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="72">
-      <c r="A75" s="17">
-        <v>5</v>
-      </c>
-      <c r="B75" s="9" t="s">
+    <row r="80" spans="1:2" ht="72.5">
+      <c r="A80" s="16">
+        <v>5</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="43.2">
-      <c r="A76" s="17">
-        <v>1</v>
-      </c>
-      <c r="B76" s="9" t="s">
+    <row r="81" spans="1:2" ht="58">
+      <c r="A81" s="16">
+        <v>1</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="57.6">
-      <c r="A77" s="17">
-        <v>3</v>
-      </c>
-      <c r="B77" s="9" t="s">
+    <row r="82" spans="1:2" ht="72.5">
+      <c r="A82" s="16">
+        <v>2</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="43.2">
-      <c r="A78" s="17">
-        <v>2</v>
-      </c>
-      <c r="B78" s="9" t="s">
+    <row r="83" spans="1:2" ht="58">
+      <c r="A83" s="16">
+        <v>3</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="72">
-      <c r="A79" s="17">
-        <v>4</v>
-      </c>
-      <c r="B79" s="9" t="s">
+    <row r="84" spans="1:2" ht="43.5">
+      <c r="A84" s="16">
+        <v>4</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="72">
-      <c r="A80" s="17">
-        <v>5</v>
-      </c>
-      <c r="B80" s="9" t="s">
+    <row r="85" spans="1:2" ht="72.5">
+      <c r="A85" s="16">
+        <v>5</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="57.6">
-      <c r="A81" s="17">
-        <v>1</v>
-      </c>
-      <c r="B81" s="9" t="s">
+    <row r="86" spans="1:2" ht="72.5">
+      <c r="A86" s="16">
+        <v>1</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="72">
-      <c r="A82" s="17">
-        <v>2</v>
-      </c>
-      <c r="B82" s="9" t="s">
+    <row r="87" spans="1:2" ht="58">
+      <c r="A87" s="16">
+        <v>4</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="57.6">
-      <c r="A83" s="17">
-        <v>3</v>
-      </c>
-      <c r="B83" s="9" t="s">
+    <row r="88" spans="1:2" ht="72.5">
+      <c r="A88" s="16">
+        <v>5</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="43.2">
-      <c r="A84" s="17">
-        <v>4</v>
-      </c>
-      <c r="B84" s="9" t="s">
+    <row r="89" spans="1:2" ht="43.5">
+      <c r="A89" s="16">
+        <v>3</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="72">
-      <c r="A85" s="17">
-        <v>5</v>
-      </c>
-      <c r="B85" s="9" t="s">
+    <row r="90" spans="1:2" ht="58">
+      <c r="A90" s="16">
+        <v>2</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="72">
-      <c r="A86" s="17">
-        <v>1</v>
-      </c>
-      <c r="B86" s="9" t="s">
+    <row r="91" spans="1:2" ht="72.5">
+      <c r="A91" s="16">
+        <v>1</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="57.6">
-      <c r="A87" s="17">
-        <v>4</v>
-      </c>
-      <c r="B87" s="9" t="s">
+    <row r="92" spans="1:2" ht="58">
+      <c r="A92" s="16">
+        <v>3</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="72">
-      <c r="A88" s="17">
-        <v>5</v>
-      </c>
-      <c r="B88" s="9" t="s">
+    <row r="93" spans="1:2" ht="72.5">
+      <c r="A93" s="16">
+        <v>5</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="43.2">
-      <c r="A89" s="17">
-        <v>3</v>
-      </c>
-      <c r="B89" s="9" t="s">
+    <row r="94" spans="1:2" ht="58">
+      <c r="A94" s="16">
+        <v>4</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="57.6">
-      <c r="A90" s="17">
-        <v>2</v>
-      </c>
-      <c r="B90" s="9" t="s">
+    <row r="95" spans="1:2" ht="58">
+      <c r="A95" s="16">
+        <v>2</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="57.6">
-      <c r="A91" s="17">
-        <v>1</v>
-      </c>
-      <c r="B91" s="9" t="s">
+    <row r="96" spans="1:2" ht="58">
+      <c r="A96" s="16">
+        <v>1</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="57.6">
-      <c r="A92" s="17">
-        <v>3</v>
-      </c>
-      <c r="B92" s="9" t="s">
+    <row r="97" spans="1:2" ht="58">
+      <c r="A97" s="16">
+        <v>3</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="57.6">
-      <c r="A93" s="17">
-        <v>5</v>
-      </c>
-      <c r="B93" s="9" t="s">
+    <row r="98" spans="1:2" ht="58">
+      <c r="A98" s="16">
+        <v>5</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="57.6">
-      <c r="A94" s="17">
-        <v>4</v>
-      </c>
-      <c r="B94" s="9" t="s">
+    <row r="99" spans="1:2" ht="58">
+      <c r="A99" s="16">
+        <v>4</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="57.6">
-      <c r="A95" s="17">
-        <v>2</v>
-      </c>
-      <c r="B95" s="9" t="s">
+    <row r="100" spans="1:2" ht="58">
+      <c r="A100" s="16">
+        <v>2</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="57.6">
-      <c r="A96" s="17">
-        <v>1</v>
-      </c>
-      <c r="B96" s="9" t="s">
+    <row r="101" spans="1:2" ht="58">
+      <c r="A101" s="16">
+        <v>1</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="57.6">
-      <c r="A97" s="17">
-        <v>3</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="57.6">
-      <c r="A98" s="17">
-        <v>5</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="57.6">
-      <c r="A99" s="17">
-        <v>4</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="57.6">
-      <c r="A100" s="17">
-        <v>2</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="57.6">
-      <c r="A101" s="17">
-        <v>1</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
